--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H2">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.269799333333333</v>
+        <v>15.48523133333333</v>
       </c>
       <c r="N2">
-        <v>27.809398</v>
+        <v>46.455694</v>
       </c>
       <c r="O2">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="P2">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="Q2">
-        <v>103.1058830100173</v>
+        <v>377.1756739459665</v>
       </c>
       <c r="R2">
-        <v>927.952947090156</v>
+        <v>3394.581065513698</v>
       </c>
       <c r="S2">
-        <v>0.03989136803908745</v>
+        <v>0.0859534061999194</v>
       </c>
       <c r="T2">
-        <v>0.03989136803908745</v>
+        <v>0.08595340619991938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H3">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.71549866666667</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N3">
         <v>113.146496</v>
       </c>
       <c r="O3">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="P3">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="Q3">
-        <v>419.5009679666347</v>
+        <v>918.6410148866702</v>
       </c>
       <c r="R3">
-        <v>3775.508711699712</v>
+        <v>8267.769133980031</v>
       </c>
       <c r="S3">
-        <v>0.162303711654209</v>
+        <v>0.2093462801521284</v>
       </c>
       <c r="T3">
-        <v>0.162303711654209</v>
+        <v>0.2093462801521284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H4">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.888937</v>
+        <v>14.31939066666667</v>
       </c>
       <c r="N4">
-        <v>29.666811</v>
+        <v>42.958172</v>
       </c>
       <c r="O4">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="P4">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="Q4">
-        <v>109.992411351238</v>
+        <v>348.7791502067915</v>
       </c>
       <c r="R4">
-        <v>989.9317021611421</v>
+        <v>3139.012351861124</v>
       </c>
       <c r="S4">
-        <v>0.04255574594412464</v>
+        <v>0.07948220959785905</v>
       </c>
       <c r="T4">
-        <v>0.04255574594412465</v>
+        <v>0.07948220959785905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H5">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04982966666666667</v>
+        <v>0.04831133333333334</v>
       </c>
       <c r="N5">
-        <v>0.149489</v>
+        <v>0.144934</v>
       </c>
       <c r="O5">
-        <v>0.0008753708463802954</v>
+        <v>0.0007149985859274246</v>
       </c>
       <c r="P5">
-        <v>0.0008753708463802955</v>
+        <v>0.0007149985859274245</v>
       </c>
       <c r="Q5">
-        <v>0.5542441208286667</v>
+        <v>1.176725056086445</v>
       </c>
       <c r="R5">
-        <v>4.988197087458</v>
+        <v>10.590525504778</v>
       </c>
       <c r="S5">
-        <v>0.0002144354479300538</v>
+        <v>0.0002681602598419715</v>
       </c>
       <c r="T5">
-        <v>0.0002144354479300538</v>
+        <v>0.0002681602598419715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.269799333333333</v>
+        <v>15.48523133333333</v>
       </c>
       <c r="N6">
-        <v>27.809398</v>
+        <v>46.455694</v>
       </c>
       <c r="O6">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="P6">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="Q6">
-        <v>168.9023624900573</v>
+        <v>282.1519713485054</v>
       </c>
       <c r="R6">
-        <v>1520.121262410516</v>
+        <v>2539.367742136548</v>
       </c>
       <c r="S6">
-        <v>0.06534783572056334</v>
+        <v>0.0642987463897271</v>
       </c>
       <c r="T6">
-        <v>0.06534783572056334</v>
+        <v>0.0642987463897271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.71549866666667</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N7">
         <v>113.146496</v>
       </c>
       <c r="O7">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="P7">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="Q7">
-        <v>687.2033145727147</v>
+        <v>687.2033145727146</v>
       </c>
       <c r="R7">
-        <v>6184.829831154432</v>
+        <v>6184.829831154431</v>
       </c>
       <c r="S7">
-        <v>0.2658769755808945</v>
+        <v>0.1566046532679131</v>
       </c>
       <c r="T7">
-        <v>0.2658769755808945</v>
+        <v>0.1566046532679131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.888937</v>
+        <v>14.31939066666667</v>
       </c>
       <c r="N8">
-        <v>29.666811</v>
+        <v>42.958172</v>
       </c>
       <c r="O8">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="P8">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="Q8">
-        <v>180.183492841018</v>
+        <v>260.9095219916027</v>
       </c>
       <c r="R8">
-        <v>1621.651435569162</v>
+        <v>2348.185697924424</v>
       </c>
       <c r="S8">
-        <v>0.06971247243759111</v>
+        <v>0.05945786983172129</v>
       </c>
       <c r="T8">
-        <v>0.06971247243759111</v>
+        <v>0.05945786983172129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04982966666666667</v>
+        <v>0.04831133333333334</v>
       </c>
       <c r="N9">
-        <v>0.149489</v>
+        <v>0.144934</v>
       </c>
       <c r="O9">
-        <v>0.0008753708463802954</v>
+        <v>0.0007149985859274246</v>
       </c>
       <c r="P9">
-        <v>0.0008753708463802955</v>
+        <v>0.0007149985859274245</v>
       </c>
       <c r="Q9">
-        <v>0.9079321050486667</v>
+        <v>0.8802669876253335</v>
       </c>
       <c r="R9">
-        <v>8.171388945438</v>
+        <v>7.922402888628</v>
       </c>
       <c r="S9">
-        <v>0.0003512763064497582</v>
+        <v>0.000200601340908796</v>
       </c>
       <c r="T9">
-        <v>0.0003512763064497582</v>
+        <v>0.0002006013409087959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H10">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I10">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J10">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.269799333333333</v>
+        <v>15.48523133333333</v>
       </c>
       <c r="N10">
-        <v>27.809398</v>
+        <v>46.455694</v>
       </c>
       <c r="O10">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="P10">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="Q10">
-        <v>147.788679595514</v>
+        <v>345.5913509005276</v>
       </c>
       <c r="R10">
-        <v>1330.098116359626</v>
+        <v>3110.322158104748</v>
       </c>
       <c r="S10">
-        <v>0.05717901285208566</v>
+        <v>0.07875575180224209</v>
       </c>
       <c r="T10">
-        <v>0.05717901285208567</v>
+        <v>0.07875575180224208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H11">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I11">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J11">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.71549866666667</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N11">
         <v>113.146496</v>
       </c>
       <c r="O11">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="P11">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="Q11">
-        <v>601.299288992128</v>
+        <v>841.7149123270257</v>
       </c>
       <c r="R11">
-        <v>5411.693600929152</v>
+        <v>7575.434210943232</v>
       </c>
       <c r="S11">
-        <v>0.2326409564476174</v>
+        <v>0.191815826845023</v>
       </c>
       <c r="T11">
-        <v>0.2326409564476174</v>
+        <v>0.191815826845023</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H12">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I12">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J12">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.888937</v>
+        <v>14.31939066666667</v>
       </c>
       <c r="N12">
-        <v>29.666811</v>
+        <v>42.958172</v>
       </c>
       <c r="O12">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="P12">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="Q12">
-        <v>157.659609370173</v>
+        <v>319.5727243617804</v>
       </c>
       <c r="R12">
-        <v>1418.936484331557</v>
+        <v>2876.154519256024</v>
       </c>
       <c r="S12">
-        <v>0.06099804704328358</v>
+        <v>0.07282644689174217</v>
       </c>
       <c r="T12">
-        <v>0.06099804704328359</v>
+        <v>0.07282644689174216</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H13">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I13">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J13">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.04982966666666667</v>
+        <v>0.04831133333333334</v>
       </c>
       <c r="N13">
-        <v>0.149489</v>
+        <v>0.144934</v>
       </c>
       <c r="O13">
-        <v>0.0008753708463802954</v>
+        <v>0.0007149985859274246</v>
       </c>
       <c r="P13">
-        <v>0.0008753708463802955</v>
+        <v>0.0007149985859274245</v>
       </c>
       <c r="Q13">
-        <v>0.794435820727</v>
+        <v>1.078187247647556</v>
       </c>
       <c r="R13">
-        <v>7.149922386543</v>
+        <v>9.703685228828002</v>
       </c>
       <c r="S13">
-        <v>0.0003073649221836961</v>
+        <v>0.0002457047812418034</v>
       </c>
       <c r="T13">
-        <v>0.0003073649221836961</v>
+        <v>0.0002457047812418033</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H14">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.269799333333333</v>
+        <v>15.48523133333333</v>
       </c>
       <c r="N14">
-        <v>27.809398</v>
+        <v>46.455694</v>
       </c>
       <c r="O14">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="P14">
-        <v>0.1628450003986012</v>
+        <v>0.2291784917153818</v>
       </c>
       <c r="Q14">
-        <v>1.103093760934222</v>
+        <v>0.7485612443971112</v>
       </c>
       <c r="R14">
-        <v>9.927843848407999</v>
+        <v>6.737051199574001</v>
       </c>
       <c r="S14">
-        <v>0.0004267837868647414</v>
+        <v>0.0001705873234931887</v>
       </c>
       <c r="T14">
-        <v>0.0004267837868647414</v>
+        <v>0.0001705873234931886</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H15">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.71549866666667</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N15">
         <v>113.146496</v>
       </c>
       <c r="O15">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="P15">
-        <v>0.6625580742963343</v>
+        <v>0.5581822391063724</v>
       </c>
       <c r="Q15">
-        <v>4.488094054001778</v>
+        <v>1.823179777379555</v>
       </c>
       <c r="R15">
-        <v>40.392846486016</v>
+        <v>16.408617996416</v>
       </c>
       <c r="S15">
-        <v>0.001736430613613294</v>
+        <v>0.0004154788413078658</v>
       </c>
       <c r="T15">
-        <v>0.001736430613613294</v>
+        <v>0.0004154788413078657</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H16">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.888937</v>
+        <v>14.31939066666667</v>
       </c>
       <c r="N16">
-        <v>29.666811</v>
+        <v>42.958172</v>
       </c>
       <c r="O16">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="P16">
-        <v>0.1737215544586843</v>
+        <v>0.2119242705923184</v>
       </c>
       <c r="Q16">
-        <v>1.176770317750667</v>
+        <v>0.6922041179568889</v>
       </c>
       <c r="R16">
-        <v>10.590932859756</v>
+        <v>6.229837061612</v>
       </c>
       <c r="S16">
-        <v>0.0004552890336849638</v>
+        <v>0.0001577442709959309</v>
       </c>
       <c r="T16">
-        <v>0.0004552890336849638</v>
+        <v>0.0001577442709959308</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H17">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.04982966666666667</v>
+        <v>0.04831133333333334</v>
       </c>
       <c r="N17">
-        <v>0.149489</v>
+        <v>0.144934</v>
       </c>
       <c r="O17">
-        <v>0.0008753708463802954</v>
+        <v>0.0007149985859274246</v>
       </c>
       <c r="P17">
-        <v>0.0008753708463802955</v>
+        <v>0.0007149985859274245</v>
       </c>
       <c r="Q17">
-        <v>0.005929663893777777</v>
+        <v>0.002335385957111111</v>
       </c>
       <c r="R17">
-        <v>0.053366975044</v>
+        <v>0.021018473614</v>
       </c>
       <c r="S17">
-        <v>2.294169816787236E-06</v>
+        <v>5.322039348537514E-07</v>
       </c>
       <c r="T17">
-        <v>2.294169816787236E-06</v>
+        <v>5.322039348537511E-07</v>
       </c>
     </row>
   </sheetData>
